--- a/src/main/resources/APD-Malaysia-Team Skillset.xlsx
+++ b/src/main/resources/APD-Malaysia-Team Skillset.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="123820"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pquiambao\Documents\Skills\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13425" tabRatio="730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17880" windowHeight="8985" tabRatio="730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="15" r:id="rId1"/>
@@ -30,7 +25,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$M$52</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A25:D57"/>
   <webPublishing codePage="0"/>
 </workbook>
 </file>
@@ -1532,12 +1528,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1648,10 +1644,10 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
@@ -1739,6 +1735,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1763,12 +1765,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="4"/>
@@ -1814,7 +1810,7 @@
         <xdr:cNvPr id="2" name="image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1856,7 @@
         <xdr:cNvPr id="2" name="image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B93E32-BCC3-4746-ACA1-6C95250BA0F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0B93E32-BCC3-4746-ACA1-6C95250BA0F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,7 +1906,7 @@
         <xdr:cNvPr id="2" name="image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1853498D-0E28-45DB-8063-6EE6ED6482FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1853498D-0E28-45DB-8063-6EE6ED6482FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,7 +1956,7 @@
         <xdr:cNvPr id="2" name="image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F183B8C0-29F0-4535-B0CC-BD358EC330F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F183B8C0-29F0-4535-B0CC-BD358EC330F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2006,7 @@
         <xdr:cNvPr id="2" name="image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBA9B8C-364A-44B8-B395-B9777257E852}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BBA9B8C-364A-44B8-B395-B9777257E852}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2060,7 +2056,7 @@
         <xdr:cNvPr id="2" name="image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C8E5D9-4383-4BA5-B6E2-FCC0F56A49C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80C8E5D9-4383-4BA5-B6E2-FCC0F56A49C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2106,7 @@
         <xdr:cNvPr id="2" name="image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F7EC37-B4A4-4A25-98EE-F9018D3CD637}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7F7EC37-B4A4-4A25-98EE-F9018D3CD637}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,7 +2156,7 @@
         <xdr:cNvPr id="2" name="image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D7316A-42D6-401F-924C-6BACFAB9BA82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{68D7316A-42D6-401F-924C-6BACFAB9BA82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2210,7 +2206,7 @@
         <xdr:cNvPr id="2" name="image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08AE69D-0CE9-43F9-A2A8-655028078ECD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F08AE69D-0CE9-43F9-A2A8-655028078ECD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2256,7 @@
         <xdr:cNvPr id="2" name="image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E31EF2-CDBD-463D-ACDE-0C8995633ED9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C0E31EF2-CDBD-463D-ACDE-0C8995633ED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2310,7 +2306,7 @@
         <xdr:cNvPr id="2" name="image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA04F424-7D7F-404F-A427-935C38ABFA63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA04F424-7D7F-404F-A427-935C38ABFA63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2356,7 @@
         <xdr:cNvPr id="2" name="image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F5F3FE-090A-42E0-A398-7E17BC1D0328}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88F5F3FE-090A-42E0-A398-7E17BC1D0328}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2406,7 @@
         <xdr:cNvPr id="2" name="image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC7207F-2789-48AB-BB15-F739C5A53892}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DC7207F-2789-48AB-BB15-F739C5A53892}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2516,23 +2512,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2568,23 +2547,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2761,2585 +2723,2585 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M524"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="25" style="33" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="12" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="13.140625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="25" style="25" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="12" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="24" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="29">
         <v>42377</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="28" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="25" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="M6" s="33" t="s">
+      <c r="M6" s="25" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="25" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="26">
         <v>41889</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="26">
         <v>41317</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="26">
         <v>41646</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="L10" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="M10" s="33" t="s">
+      <c r="M10" s="25" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="26">
         <v>42044</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="25" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="25" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="26">
         <v>41430</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J13" s="33" t="s">
+      <c r="J13" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="26">
         <v>42372</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J14" s="33" t="s">
+      <c r="J14" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J15" s="33" t="s">
+      <c r="J15" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="25" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="26">
         <v>42134</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+    <row r="17" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="29">
         <v>42375</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="28" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="25" t="s">
         <v>299</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="26">
         <v>42405</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="L18" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="M18" s="33" t="s">
+      <c r="M18" s="25" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="26">
         <v>40550</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J19" s="33" t="s">
+      <c r="J19" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="K19" s="25" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+    <row r="20" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="29">
         <v>42197</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="28" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="29">
         <v>42011</v>
       </c>
-      <c r="I22" s="36" t="s">
+      <c r="I22" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="J22" s="36" t="s">
+      <c r="J22" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="28" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="K23" s="33" t="s">
+      <c r="K23" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="26">
         <v>42125</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K24" s="33" t="s">
+      <c r="K24" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="26">
         <v>42370</v>
       </c>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="J25" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="25" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="26">
         <v>42011</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="L26" s="33" t="s">
+      <c r="L26" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="M26" s="33" t="s">
+      <c r="M26" s="25" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="26">
         <v>39456</v>
       </c>
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="J27" s="33" t="s">
+      <c r="J27" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="K27" s="33" t="s">
+      <c r="K27" s="25" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="26">
         <v>41709</v>
       </c>
-      <c r="I28" s="33" t="s">
+      <c r="I28" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J28" s="33" t="s">
+      <c r="J28" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K28" s="33" t="s">
+      <c r="K28" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="L28" s="33" t="s">
+      <c r="L28" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="M28" s="33" t="s">
+      <c r="M28" s="25" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H29" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="I29" s="33" t="s">
+      <c r="I29" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K29" s="33" t="s">
+      <c r="K29" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="I30" s="33" t="s">
+      <c r="I30" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="J30" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K30" s="33" t="s">
+      <c r="K30" s="25" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="26">
         <v>42713</v>
       </c>
-      <c r="I31" s="33" t="s">
+      <c r="I31" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J31" s="33" t="s">
+      <c r="J31" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K31" s="33" t="s">
+      <c r="K31" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="I32" s="33" t="s">
+      <c r="I32" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J32" s="33" t="s">
+      <c r="J32" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K32" s="33" t="s">
+      <c r="K32" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="L32" s="33" t="s">
+      <c r="L32" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="M32" s="33" t="s">
+      <c r="M32" s="25" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="26">
         <v>42162</v>
       </c>
-      <c r="I33" s="33" t="s">
+      <c r="I33" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J33" s="33" t="s">
+      <c r="J33" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="K33" s="33" t="s">
+      <c r="K33" s="25" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="H34" s="33" t="s">
+      <c r="H34" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="I34" s="33" t="s">
+      <c r="I34" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J34" s="33" t="s">
+      <c r="J34" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K34" s="33" t="s">
+      <c r="K34" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="H35" s="33" t="s">
+      <c r="H35" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="I35" s="33" t="s">
+      <c r="I35" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J35" s="33" t="s">
+      <c r="J35" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K35" s="33" t="s">
+      <c r="K35" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="L35" s="33" t="s">
+      <c r="L35" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="M35" s="33" t="s">
+      <c r="M35" s="25" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="I36" s="33" t="s">
+      <c r="I36" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J36" s="33" t="s">
+      <c r="J36" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K36" s="33" t="s">
+      <c r="K36" s="25" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="25" t="s">
         <v>398</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H37" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="I37" s="33" t="s">
+      <c r="I37" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J37" s="33" t="s">
+      <c r="J37" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K37" s="33" t="s">
+      <c r="K37" s="25" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="25" t="s">
         <v>389</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="I38" s="33" t="s">
+      <c r="I38" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J38" s="33" t="s">
+      <c r="J38" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K38" s="33" t="s">
+      <c r="K38" s="25" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="H39" s="34">
+      <c r="H39" s="26">
         <v>42125</v>
       </c>
-      <c r="I39" s="33" t="s">
+      <c r="I39" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J39" s="33" t="s">
+      <c r="J39" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="K39" s="33" t="s">
+      <c r="K39" s="25" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="I40" s="33" t="s">
+      <c r="I40" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J40" s="33" t="s">
+      <c r="J40" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K40" s="33" t="s">
+      <c r="K40" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="H41" s="33" t="s">
+      <c r="H41" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="I41" s="33" t="s">
+      <c r="I41" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J41" s="33" t="s">
+      <c r="J41" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="K41" s="33" t="s">
+      <c r="K41" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="H42" s="34">
+      <c r="H42" s="26">
         <v>42372</v>
       </c>
-      <c r="I42" s="33" t="s">
+      <c r="I42" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J42" s="33" t="s">
+      <c r="J42" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="K42" s="33" t="s">
+      <c r="K42" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E43" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="H43" s="33" t="s">
+      <c r="H43" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="I43" s="33" t="s">
+      <c r="I43" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J43" s="33" t="s">
+      <c r="J43" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="K43" s="33" t="s">
+      <c r="K43" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="25" t="s">
         <v>435</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="E44" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F44" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="H44" s="34">
+      <c r="H44" s="26">
         <v>42615</v>
       </c>
-      <c r="I44" s="33" t="s">
+      <c r="I44" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J44" s="33" t="s">
+      <c r="J44" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="K44" s="33" t="s">
+      <c r="K44" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="E45" s="33" t="s">
+      <c r="E45" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="H45" s="33" t="s">
+      <c r="H45" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="I45" s="33" t="s">
+      <c r="I45" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J45" s="33" t="s">
+      <c r="J45" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="K45" s="33" t="s">
+      <c r="K45" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="E46" s="33" t="s">
+      <c r="E46" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="F46" s="33" t="s">
+      <c r="F46" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="H46" s="34">
+      <c r="H46" s="26">
         <v>40579</v>
       </c>
-      <c r="I46" s="33" t="s">
+      <c r="I46" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J46" s="33" t="s">
+      <c r="J46" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="K46" s="33" t="s">
+      <c r="K46" s="25" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="H47" s="34">
+      <c r="H47" s="26">
         <v>42370</v>
       </c>
-      <c r="I47" s="33" t="s">
+      <c r="I47" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J47" s="33" t="s">
+      <c r="J47" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K47" s="33" t="s">
+      <c r="K47" s="25" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="H48" s="33" t="s">
+      <c r="H48" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="I48" s="33" t="s">
+      <c r="I48" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J48" s="33" t="s">
+      <c r="J48" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K48" s="33" t="s">
+      <c r="K48" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="H49" s="34">
+      <c r="H49" s="26">
         <v>42071</v>
       </c>
-      <c r="I49" s="33" t="s">
+      <c r="I49" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J49" s="33" t="s">
+      <c r="J49" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K49" s="33" t="s">
+      <c r="K49" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="L49" s="33" t="s">
+      <c r="L49" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="M49" s="33" t="s">
+      <c r="M49" s="25" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="H50" s="34">
+      <c r="H50" s="26">
         <v>42554</v>
       </c>
-      <c r="I50" s="33" t="s">
+      <c r="I50" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J50" s="33" t="s">
+      <c r="J50" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="K50" s="33" t="s">
+      <c r="K50" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="E51" s="33" t="s">
+      <c r="E51" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="H51" s="34">
+      <c r="H51" s="26">
         <v>42888</v>
       </c>
-      <c r="I51" s="33" t="s">
+      <c r="I51" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="J51" s="33" t="s">
+      <c r="J51" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="K51" s="33" t="s">
+      <c r="K51" s="25" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="E52" s="33" t="s">
+      <c r="E52" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="H52" s="33" t="s">
+      <c r="H52" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="I52" s="33" t="s">
+      <c r="I52" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="J52" s="33" t="s">
+      <c r="J52" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="K52" s="33" t="s">
+      <c r="K52" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="L52" s="33" t="s">
+      <c r="L52" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="M52" s="33" t="s">
+      <c r="M52" s="25" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="27" t="s">
         <v>488</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="F53" s="35" t="s">
+      <c r="F53" s="27" t="s">
         <v>489</v>
       </c>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35" t="s">
+      <c r="G53" s="27"/>
+      <c r="H53" s="27" t="s">
         <v>492</v>
       </c>
-      <c r="I53" s="35" t="s">
+      <c r="I53" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="J53" s="35" t="s">
+      <c r="J53" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="K53" s="35"/>
-      <c r="L53" s="33" t="s">
+      <c r="K53" s="27"/>
+      <c r="L53" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="M53" s="33" t="s">
+      <c r="M53" s="25" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H56" s="34"/>
+      <c r="H56" s="26"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H58" s="34"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H59" s="34"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H62" s="34"/>
+      <c r="H62" s="26"/>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H65" s="34"/>
+      <c r="H65" s="26"/>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H67" s="34"/>
+      <c r="H67" s="26"/>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H68" s="34"/>
+      <c r="H68" s="26"/>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H71" s="34"/>
+      <c r="H71" s="26"/>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H72" s="34"/>
+      <c r="H72" s="26"/>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H74" s="34"/>
+      <c r="H74" s="26"/>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H75" s="34"/>
+      <c r="H75" s="26"/>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H77" s="34"/>
+      <c r="H77" s="26"/>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H79" s="34"/>
+      <c r="H79" s="26"/>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H81" s="34"/>
+      <c r="H81" s="26"/>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H82" s="34"/>
+      <c r="H82" s="26"/>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H83" s="34"/>
+      <c r="H83" s="26"/>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H84" s="34"/>
+      <c r="H84" s="26"/>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H86" s="34"/>
+      <c r="H86" s="26"/>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H88" s="34"/>
+      <c r="H88" s="26"/>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H89" s="34"/>
+      <c r="H89" s="26"/>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H92" s="34"/>
+      <c r="H92" s="26"/>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H93" s="34"/>
+      <c r="H93" s="26"/>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H94" s="34"/>
+      <c r="H94" s="26"/>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H97" s="34"/>
+      <c r="H97" s="26"/>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H99" s="34"/>
+      <c r="H99" s="26"/>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H100" s="34"/>
+      <c r="H100" s="26"/>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H105" s="34"/>
+      <c r="H105" s="26"/>
     </row>
     <row r="111" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H111" s="34"/>
+      <c r="H111" s="26"/>
     </row>
     <row r="112" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H112" s="34"/>
+      <c r="H112" s="26"/>
     </row>
     <row r="113" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H113" s="34"/>
+      <c r="H113" s="26"/>
     </row>
     <row r="115" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H115" s="34"/>
+      <c r="H115" s="26"/>
     </row>
     <row r="123" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G123" s="34"/>
-      <c r="H123" s="34"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="26"/>
     </row>
     <row r="124" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G124" s="34"/>
-      <c r="H124" s="34"/>
+      <c r="G124" s="26"/>
+      <c r="H124" s="26"/>
     </row>
     <row r="125" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H125" s="34"/>
+      <c r="H125" s="26"/>
     </row>
     <row r="126" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H126" s="34"/>
+      <c r="H126" s="26"/>
     </row>
     <row r="127" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G127" s="34"/>
+      <c r="G127" s="26"/>
     </row>
     <row r="129" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G129" s="34"/>
+      <c r="G129" s="26"/>
     </row>
     <row r="130" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G130" s="34"/>
-      <c r="H130" s="34"/>
+      <c r="G130" s="26"/>
+      <c r="H130" s="26"/>
     </row>
     <row r="132" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H132" s="34"/>
+      <c r="H132" s="26"/>
     </row>
     <row r="133" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H133" s="34"/>
+      <c r="H133" s="26"/>
     </row>
     <row r="134" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G134" s="34"/>
-      <c r="H134" s="34"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="26"/>
     </row>
     <row r="137" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G137" s="34"/>
+      <c r="G137" s="26"/>
     </row>
     <row r="139" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H139" s="34"/>
+      <c r="H139" s="26"/>
     </row>
     <row r="140" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H140" s="34"/>
+      <c r="H140" s="26"/>
     </row>
     <row r="141" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H141" s="34"/>
+      <c r="H141" s="26"/>
     </row>
     <row r="142" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H142" s="34"/>
+      <c r="H142" s="26"/>
     </row>
     <row r="144" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G144" s="34"/>
+      <c r="G144" s="26"/>
     </row>
     <row r="145" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H145" s="34"/>
+      <c r="H145" s="26"/>
     </row>
     <row r="147" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G147" s="34"/>
+      <c r="G147" s="26"/>
     </row>
     <row r="148" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H148" s="34"/>
+      <c r="H148" s="26"/>
     </row>
     <row r="150" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G150" s="34"/>
+      <c r="G150" s="26"/>
     </row>
     <row r="152" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G152" s="34"/>
-      <c r="H152" s="34"/>
+      <c r="G152" s="26"/>
+      <c r="H152" s="26"/>
     </row>
     <row r="153" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H153" s="34"/>
+      <c r="H153" s="26"/>
     </row>
     <row r="156" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G156" s="34"/>
+      <c r="G156" s="26"/>
     </row>
     <row r="158" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H158" s="34"/>
+      <c r="H158" s="26"/>
     </row>
     <row r="159" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G159" s="34"/>
-      <c r="H159" s="34"/>
+      <c r="G159" s="26"/>
+      <c r="H159" s="26"/>
     </row>
     <row r="160" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G160" s="34"/>
+      <c r="G160" s="26"/>
     </row>
     <row r="162" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G162" s="34"/>
+      <c r="G162" s="26"/>
     </row>
     <row r="163" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H163" s="34"/>
+      <c r="H163" s="26"/>
     </row>
     <row r="164" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G164" s="34"/>
-      <c r="H164" s="34"/>
+      <c r="G164" s="26"/>
+      <c r="H164" s="26"/>
     </row>
     <row r="166" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G166" s="34"/>
+      <c r="G166" s="26"/>
     </row>
     <row r="167" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H167" s="34"/>
+      <c r="H167" s="26"/>
     </row>
     <row r="171" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H171" s="34"/>
+      <c r="H171" s="26"/>
     </row>
     <row r="172" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G172" s="34"/>
+      <c r="G172" s="26"/>
     </row>
     <row r="173" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H173" s="34"/>
+      <c r="H173" s="26"/>
     </row>
     <row r="175" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H175" s="34"/>
+      <c r="H175" s="26"/>
     </row>
     <row r="180" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H180" s="34"/>
+      <c r="H180" s="26"/>
     </row>
     <row r="181" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H181" s="34"/>
+      <c r="H181" s="26"/>
     </row>
     <row r="182" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H182" s="34"/>
+      <c r="H182" s="26"/>
     </row>
     <row r="184" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H184" s="34"/>
+      <c r="H184" s="26"/>
     </row>
     <row r="189" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H189" s="34"/>
+      <c r="H189" s="26"/>
     </row>
     <row r="191" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H191" s="34"/>
+      <c r="H191" s="26"/>
     </row>
     <row r="193" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H193" s="34"/>
+      <c r="H193" s="26"/>
     </row>
     <row r="194" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G194" s="34"/>
-      <c r="H194" s="34"/>
+      <c r="G194" s="26"/>
+      <c r="H194" s="26"/>
     </row>
     <row r="200" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G200" s="34"/>
-      <c r="H200" s="34"/>
+      <c r="G200" s="26"/>
+      <c r="H200" s="26"/>
     </row>
     <row r="203" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H203" s="34"/>
+      <c r="H203" s="26"/>
     </row>
     <row r="205" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H205" s="34"/>
+      <c r="H205" s="26"/>
     </row>
     <row r="206" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H206" s="34"/>
+      <c r="H206" s="26"/>
     </row>
     <row r="208" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H208" s="34"/>
+      <c r="H208" s="26"/>
     </row>
     <row r="210" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H210" s="34"/>
+      <c r="H210" s="26"/>
     </row>
     <row r="211" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H211" s="34"/>
+      <c r="H211" s="26"/>
     </row>
     <row r="212" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G212" s="34"/>
+      <c r="G212" s="26"/>
     </row>
     <row r="213" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H213" s="34"/>
+      <c r="H213" s="26"/>
     </row>
     <row r="215" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H215" s="34"/>
+      <c r="H215" s="26"/>
     </row>
     <row r="216" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H216" s="34"/>
+      <c r="H216" s="26"/>
     </row>
     <row r="217" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H217" s="34"/>
+      <c r="H217" s="26"/>
     </row>
     <row r="218" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H218" s="34"/>
+      <c r="H218" s="26"/>
     </row>
     <row r="219" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H219" s="34"/>
+      <c r="H219" s="26"/>
     </row>
     <row r="220" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G220" s="34"/>
-      <c r="H220" s="34"/>
+      <c r="G220" s="26"/>
+      <c r="H220" s="26"/>
     </row>
     <row r="223" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H223" s="34"/>
+      <c r="H223" s="26"/>
     </row>
     <row r="225" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H225" s="34"/>
+      <c r="H225" s="26"/>
     </row>
     <row r="227" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H227" s="34"/>
+      <c r="H227" s="26"/>
     </row>
     <row r="230" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H230" s="34"/>
+      <c r="H230" s="26"/>
     </row>
     <row r="231" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H231" s="34"/>
+      <c r="H231" s="26"/>
     </row>
     <row r="232" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H232" s="34"/>
+      <c r="H232" s="26"/>
     </row>
     <row r="233" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H233" s="34"/>
+      <c r="H233" s="26"/>
     </row>
     <row r="234" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H234" s="34"/>
+      <c r="H234" s="26"/>
     </row>
     <row r="242" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H242" s="34"/>
+      <c r="H242" s="26"/>
     </row>
     <row r="244" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H244" s="34"/>
+      <c r="H244" s="26"/>
     </row>
     <row r="246" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H246" s="34"/>
+      <c r="H246" s="26"/>
     </row>
     <row r="247" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H247" s="34"/>
+      <c r="H247" s="26"/>
     </row>
     <row r="248" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H248" s="34"/>
+      <c r="H248" s="26"/>
     </row>
     <row r="249" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H249" s="34"/>
+      <c r="H249" s="26"/>
     </row>
     <row r="252" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G252" s="34"/>
+      <c r="G252" s="26"/>
     </row>
     <row r="253" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G253" s="34"/>
-      <c r="H253" s="34"/>
+      <c r="G253" s="26"/>
+      <c r="H253" s="26"/>
     </row>
     <row r="255" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H255" s="34"/>
+      <c r="H255" s="26"/>
     </row>
     <row r="256" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H256" s="34"/>
+      <c r="H256" s="26"/>
     </row>
     <row r="257" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H257" s="34"/>
+      <c r="H257" s="26"/>
     </row>
     <row r="259" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G259" s="34"/>
+      <c r="G259" s="26"/>
     </row>
     <row r="261" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H261" s="34"/>
+      <c r="H261" s="26"/>
     </row>
     <row r="262" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H262" s="34"/>
+      <c r="H262" s="26"/>
     </row>
     <row r="264" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H264" s="34"/>
+      <c r="H264" s="26"/>
     </row>
     <row r="265" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H265" s="34"/>
+      <c r="H265" s="26"/>
     </row>
     <row r="268" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H268" s="34"/>
+      <c r="H268" s="26"/>
     </row>
     <row r="271" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H271" s="34"/>
+      <c r="H271" s="26"/>
     </row>
     <row r="272" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H272" s="34"/>
+      <c r="H272" s="26"/>
     </row>
     <row r="274" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H274" s="34"/>
+      <c r="H274" s="26"/>
     </row>
     <row r="275" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G275" s="34"/>
+      <c r="G275" s="26"/>
     </row>
     <row r="276" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H276" s="34"/>
+      <c r="H276" s="26"/>
     </row>
     <row r="278" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H278" s="34"/>
+      <c r="H278" s="26"/>
     </row>
     <row r="279" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H279" s="34"/>
+      <c r="H279" s="26"/>
     </row>
     <row r="280" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G280" s="34"/>
-      <c r="H280" s="34"/>
+      <c r="G280" s="26"/>
+      <c r="H280" s="26"/>
     </row>
     <row r="282" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G282" s="34"/>
+      <c r="G282" s="26"/>
     </row>
     <row r="283" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H283" s="34"/>
+      <c r="H283" s="26"/>
     </row>
     <row r="285" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G285" s="34"/>
+      <c r="G285" s="26"/>
     </row>
     <row r="286" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G286" s="34"/>
-      <c r="H286" s="34"/>
+      <c r="G286" s="26"/>
+      <c r="H286" s="26"/>
     </row>
     <row r="287" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H287" s="34"/>
+      <c r="H287" s="26"/>
     </row>
     <row r="289" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H289" s="34"/>
+      <c r="H289" s="26"/>
     </row>
     <row r="290" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H290" s="34"/>
+      <c r="H290" s="26"/>
     </row>
     <row r="295" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H295" s="34"/>
+      <c r="H295" s="26"/>
     </row>
     <row r="298" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G298" s="34"/>
-      <c r="H298" s="34"/>
+      <c r="G298" s="26"/>
+      <c r="H298" s="26"/>
     </row>
     <row r="300" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H300" s="34"/>
+      <c r="H300" s="26"/>
     </row>
     <row r="302" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H302" s="34"/>
+      <c r="H302" s="26"/>
     </row>
     <row r="306" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H306" s="34"/>
+      <c r="H306" s="26"/>
     </row>
     <row r="310" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H310" s="34"/>
+      <c r="H310" s="26"/>
     </row>
     <row r="311" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H311" s="34"/>
+      <c r="H311" s="26"/>
     </row>
     <row r="312" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H312" s="34"/>
+      <c r="H312" s="26"/>
     </row>
     <row r="313" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H313" s="34"/>
+      <c r="H313" s="26"/>
     </row>
     <row r="315" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H315" s="34"/>
+      <c r="H315" s="26"/>
     </row>
     <row r="318" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H318" s="34"/>
+      <c r="H318" s="26"/>
     </row>
     <row r="323" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H323" s="34"/>
+      <c r="H323" s="26"/>
     </row>
     <row r="325" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H325" s="34"/>
+      <c r="H325" s="26"/>
     </row>
     <row r="327" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H327" s="34"/>
+      <c r="H327" s="26"/>
     </row>
     <row r="329" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H329" s="34"/>
+      <c r="H329" s="26"/>
     </row>
     <row r="330" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G330" s="34"/>
-      <c r="H330" s="34"/>
+      <c r="G330" s="26"/>
+      <c r="H330" s="26"/>
     </row>
     <row r="331" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H331" s="34"/>
+      <c r="H331" s="26"/>
     </row>
     <row r="332" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H332" s="34"/>
+      <c r="H332" s="26"/>
     </row>
     <row r="335" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H335" s="34"/>
+      <c r="H335" s="26"/>
     </row>
     <row r="336" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G336" s="34"/>
+      <c r="G336" s="26"/>
     </row>
     <row r="337" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H337" s="34"/>
+      <c r="H337" s="26"/>
     </row>
     <row r="340" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H340" s="34"/>
+      <c r="H340" s="26"/>
     </row>
     <row r="341" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H341" s="34"/>
+      <c r="H341" s="26"/>
     </row>
     <row r="342" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H342" s="34"/>
+      <c r="H342" s="26"/>
     </row>
     <row r="344" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H344" s="34"/>
+      <c r="H344" s="26"/>
     </row>
     <row r="346" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H346" s="34"/>
+      <c r="H346" s="26"/>
     </row>
     <row r="347" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H347" s="34"/>
+      <c r="H347" s="26"/>
     </row>
     <row r="348" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H348" s="34"/>
+      <c r="H348" s="26"/>
     </row>
     <row r="349" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H349" s="34"/>
+      <c r="H349" s="26"/>
     </row>
     <row r="353" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H353" s="34"/>
+      <c r="H353" s="26"/>
     </row>
     <row r="355" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H355" s="34"/>
+      <c r="H355" s="26"/>
     </row>
     <row r="357" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H357" s="34"/>
+      <c r="H357" s="26"/>
     </row>
     <row r="358" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H358" s="34"/>
+      <c r="H358" s="26"/>
     </row>
     <row r="359" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H359" s="34"/>
+      <c r="H359" s="26"/>
     </row>
     <row r="362" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H362" s="34"/>
+      <c r="H362" s="26"/>
     </row>
     <row r="363" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H363" s="34"/>
+      <c r="H363" s="26"/>
     </row>
     <row r="364" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H364" s="34"/>
+      <c r="H364" s="26"/>
     </row>
     <row r="365" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H365" s="34"/>
+      <c r="H365" s="26"/>
     </row>
     <row r="366" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H366" s="34"/>
+      <c r="H366" s="26"/>
     </row>
     <row r="368" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G368" s="34"/>
-      <c r="H368" s="34"/>
+      <c r="G368" s="26"/>
+      <c r="H368" s="26"/>
     </row>
     <row r="369" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H369" s="34"/>
+      <c r="H369" s="26"/>
     </row>
     <row r="371" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H371" s="34"/>
+      <c r="H371" s="26"/>
     </row>
     <row r="372" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H372" s="34"/>
+      <c r="H372" s="26"/>
     </row>
     <row r="374" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G374" s="34"/>
+      <c r="G374" s="26"/>
     </row>
     <row r="375" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H375" s="34"/>
+      <c r="H375" s="26"/>
     </row>
     <row r="376" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H376" s="34"/>
+      <c r="H376" s="26"/>
     </row>
     <row r="380" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G380" s="34"/>
-      <c r="H380" s="34"/>
+      <c r="G380" s="26"/>
+      <c r="H380" s="26"/>
     </row>
     <row r="382" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H382" s="34"/>
+      <c r="H382" s="26"/>
     </row>
     <row r="383" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H383" s="34"/>
+      <c r="H383" s="26"/>
     </row>
     <row r="386" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G386" s="34"/>
+      <c r="G386" s="26"/>
     </row>
     <row r="388" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G388" s="34"/>
+      <c r="G388" s="26"/>
     </row>
     <row r="391" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H391" s="34"/>
+      <c r="H391" s="26"/>
     </row>
     <row r="393" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H393" s="34"/>
+      <c r="H393" s="26"/>
     </row>
     <row r="398" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H398" s="34"/>
+      <c r="H398" s="26"/>
     </row>
     <row r="399" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H399" s="34"/>
+      <c r="H399" s="26"/>
     </row>
     <row r="401" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H401" s="34"/>
+      <c r="H401" s="26"/>
     </row>
     <row r="407" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H407" s="34"/>
+      <c r="H407" s="26"/>
     </row>
     <row r="408" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H408" s="34"/>
+      <c r="H408" s="26"/>
     </row>
     <row r="409" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H409" s="34"/>
+      <c r="H409" s="26"/>
     </row>
     <row r="410" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H410" s="34"/>
+      <c r="H410" s="26"/>
     </row>
     <row r="412" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H412" s="34"/>
+      <c r="H412" s="26"/>
     </row>
     <row r="413" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H413" s="34"/>
+      <c r="H413" s="26"/>
     </row>
     <row r="415" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H415" s="34"/>
+      <c r="H415" s="26"/>
     </row>
     <row r="417" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H417" s="34"/>
+      <c r="H417" s="26"/>
     </row>
     <row r="421" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G421" s="34"/>
+      <c r="G421" s="26"/>
     </row>
     <row r="422" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H422" s="34"/>
+      <c r="H422" s="26"/>
     </row>
     <row r="423" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G423" s="34"/>
-      <c r="H423" s="34"/>
+      <c r="G423" s="26"/>
+      <c r="H423" s="26"/>
     </row>
     <row r="424" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H424" s="34"/>
+      <c r="H424" s="26"/>
     </row>
     <row r="426" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H426" s="34"/>
+      <c r="H426" s="26"/>
     </row>
     <row r="428" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H428" s="34"/>
+      <c r="H428" s="26"/>
     </row>
     <row r="429" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H429" s="34"/>
+      <c r="H429" s="26"/>
     </row>
     <row r="433" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G433" s="34"/>
+      <c r="G433" s="26"/>
     </row>
     <row r="434" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H434" s="34"/>
+      <c r="H434" s="26"/>
     </row>
     <row r="435" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H435" s="34"/>
+      <c r="H435" s="26"/>
     </row>
     <row r="436" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H436" s="34"/>
+      <c r="H436" s="26"/>
     </row>
     <row r="437" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G437" s="34"/>
-      <c r="H437" s="34"/>
+      <c r="G437" s="26"/>
+      <c r="H437" s="26"/>
     </row>
     <row r="438" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H438" s="34"/>
+      <c r="H438" s="26"/>
     </row>
     <row r="440" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H440" s="34"/>
+      <c r="H440" s="26"/>
     </row>
     <row r="442" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G442" s="34"/>
-      <c r="H442" s="34"/>
+      <c r="G442" s="26"/>
+      <c r="H442" s="26"/>
     </row>
     <row r="443" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H443" s="34"/>
+      <c r="H443" s="26"/>
     </row>
     <row r="445" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G445" s="34"/>
+      <c r="G445" s="26"/>
     </row>
     <row r="446" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H446" s="34"/>
+      <c r="H446" s="26"/>
     </row>
     <row r="447" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H447" s="34"/>
+      <c r="H447" s="26"/>
     </row>
     <row r="448" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G448" s="34"/>
+      <c r="G448" s="26"/>
     </row>
     <row r="453" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H453" s="34"/>
+      <c r="H453" s="26"/>
     </row>
     <row r="454" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H454" s="34"/>
+      <c r="H454" s="26"/>
     </row>
     <row r="455" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H455" s="34"/>
+      <c r="H455" s="26"/>
     </row>
     <row r="459" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H459" s="34"/>
+      <c r="H459" s="26"/>
     </row>
     <row r="461" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H461" s="34"/>
+      <c r="H461" s="26"/>
     </row>
     <row r="463" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H463" s="34"/>
+      <c r="H463" s="26"/>
     </row>
     <row r="464" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H464" s="34"/>
+      <c r="H464" s="26"/>
     </row>
     <row r="467" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H467" s="34"/>
+      <c r="H467" s="26"/>
     </row>
     <row r="471" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H471" s="34"/>
+      <c r="H471" s="26"/>
     </row>
     <row r="476" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H476" s="34"/>
+      <c r="H476" s="26"/>
     </row>
     <row r="477" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H477" s="34"/>
+      <c r="H477" s="26"/>
     </row>
     <row r="478" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H478" s="34"/>
+      <c r="H478" s="26"/>
     </row>
     <row r="482" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H482" s="34"/>
+      <c r="H482" s="26"/>
     </row>
     <row r="483" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H483" s="34"/>
+      <c r="H483" s="26"/>
     </row>
     <row r="485" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H485" s="34"/>
+      <c r="H485" s="26"/>
     </row>
     <row r="486" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G486" s="34"/>
+      <c r="G486" s="26"/>
     </row>
     <row r="487" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H487" s="34"/>
+      <c r="H487" s="26"/>
     </row>
     <row r="488" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G488" s="34"/>
-      <c r="H488" s="34"/>
+      <c r="G488" s="26"/>
+      <c r="H488" s="26"/>
     </row>
     <row r="489" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H489" s="34"/>
+      <c r="H489" s="26"/>
     </row>
     <row r="490" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H490" s="34"/>
+      <c r="H490" s="26"/>
     </row>
     <row r="492" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G492" s="34"/>
+      <c r="G492" s="26"/>
     </row>
     <row r="494" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H494" s="34"/>
+      <c r="H494" s="26"/>
     </row>
     <row r="495" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H495" s="34"/>
+      <c r="H495" s="26"/>
     </row>
     <row r="499" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H499" s="34"/>
+      <c r="H499" s="26"/>
     </row>
     <row r="500" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H500" s="34"/>
+      <c r="H500" s="26"/>
     </row>
     <row r="501" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H501" s="34"/>
+      <c r="H501" s="26"/>
     </row>
     <row r="502" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H502" s="34"/>
+      <c r="H502" s="26"/>
     </row>
     <row r="503" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H503" s="34"/>
+      <c r="H503" s="26"/>
     </row>
     <row r="504" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G504" s="34"/>
-      <c r="H504" s="34"/>
+      <c r="G504" s="26"/>
+      <c r="H504" s="26"/>
     </row>
     <row r="508" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H508" s="34"/>
+      <c r="H508" s="26"/>
     </row>
     <row r="511" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H511" s="34"/>
+      <c r="H511" s="26"/>
     </row>
     <row r="512" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H512" s="34"/>
+      <c r="H512" s="26"/>
     </row>
     <row r="513" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H513" s="34"/>
+      <c r="H513" s="26"/>
     </row>
     <row r="514" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H514" s="34"/>
+      <c r="H514" s="26"/>
     </row>
     <row r="515" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H515" s="34"/>
+      <c r="H515" s="26"/>
     </row>
     <row r="517" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H517" s="34"/>
+      <c r="H517" s="26"/>
     </row>
     <row r="518" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G518" s="34"/>
-      <c r="H518" s="34"/>
+      <c r="G518" s="26"/>
+      <c r="H518" s="26"/>
     </row>
     <row r="520" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H520" s="34"/>
+      <c r="H520" s="26"/>
     </row>
     <row r="521" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H521" s="34"/>
+      <c r="H521" s="26"/>
     </row>
     <row r="522" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H522" s="34"/>
+      <c r="H522" s="26"/>
     </row>
     <row r="523" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G523" s="34"/>
-      <c r="H523" s="34"/>
+      <c r="G523" s="26"/>
+      <c r="H523" s="26"/>
     </row>
     <row r="524" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H524" s="34"/>
+      <c r="H524" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M52">
@@ -5381,35 +5343,35 @@
       <c r="A1" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -6623,10 +6585,10 @@
     </row>
     <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="27"/>
+      <c r="B107" s="33"/>
     </row>
     <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6639,10 +6601,10 @@
     <row r="116" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B118" s="27"/>
+      <c r="B118" s="33"/>
     </row>
     <row r="119" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
@@ -6677,10 +6639,10 @@
       </c>
     </row>
     <row r="126" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="27" t="s">
+      <c r="A126" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B126" s="27"/>
+      <c r="B126" s="33"/>
     </row>
     <row r="127" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
@@ -6708,10 +6670,10 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="27" t="s">
+      <c r="A133" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B133" s="27"/>
+      <c r="B133" s="33"/>
     </row>
     <row r="134" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
@@ -6772,35 +6734,35 @@
       <c r="A1" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -8047,10 +8009,10 @@
     </row>
     <row r="106" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="107" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="27"/>
+      <c r="B107" s="33"/>
     </row>
     <row r="108" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8063,10 +8025,10 @@
     <row r="116" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B118" s="27"/>
+      <c r="B118" s="33"/>
     </row>
     <row r="119" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
@@ -8101,10 +8063,10 @@
       </c>
     </row>
     <row r="126" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="27" t="s">
+      <c r="A126" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B126" s="27"/>
+      <c r="B126" s="33"/>
     </row>
     <row r="127" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
@@ -8132,10 +8094,10 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="27" t="s">
+      <c r="A133" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B133" s="27"/>
+      <c r="B133" s="33"/>
     </row>
     <row r="134" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
@@ -8196,35 +8158,35 @@
       <c r="A1" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -9516,10 +9478,10 @@
     </row>
     <row r="106" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="107" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="27"/>
+      <c r="B107" s="33"/>
     </row>
     <row r="108" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9532,10 +9494,10 @@
     <row r="116" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B118" s="27"/>
+      <c r="B118" s="33"/>
     </row>
     <row r="119" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
@@ -9570,10 +9532,10 @@
       </c>
     </row>
     <row r="126" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="27" t="s">
+      <c r="A126" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B126" s="27"/>
+      <c r="B126" s="33"/>
     </row>
     <row r="127" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
@@ -9601,10 +9563,10 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="27" t="s">
+      <c r="A133" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B133" s="27"/>
+      <c r="B133" s="33"/>
     </row>
     <row r="134" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
@@ -9665,35 +9627,35 @@
       <c r="A1" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -10920,10 +10882,10 @@
     </row>
     <row r="106" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="107" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="27"/>
+      <c r="B107" s="33"/>
     </row>
     <row r="108" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10936,10 +10898,10 @@
     <row r="116" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B118" s="27"/>
+      <c r="B118" s="33"/>
     </row>
     <row r="119" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
@@ -10974,10 +10936,10 @@
       </c>
     </row>
     <row r="126" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="27" t="s">
+      <c r="A126" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B126" s="27"/>
+      <c r="B126" s="33"/>
     </row>
     <row r="127" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
@@ -11005,10 +10967,10 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="27" t="s">
+      <c r="A133" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B133" s="27"/>
+      <c r="B133" s="33"/>
     </row>
     <row r="134" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
@@ -11069,35 +11031,35 @@
       <c r="A1" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -12389,10 +12351,10 @@
     </row>
     <row r="106" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="107" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="27"/>
+      <c r="B107" s="33"/>
     </row>
     <row r="108" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12405,10 +12367,10 @@
     <row r="116" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B118" s="27"/>
+      <c r="B118" s="33"/>
     </row>
     <row r="119" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
@@ -12443,10 +12405,10 @@
       </c>
     </row>
     <row r="126" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="27" t="s">
+      <c r="A126" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B126" s="27"/>
+      <c r="B126" s="33"/>
     </row>
     <row r="127" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
@@ -12474,10 +12436,10 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="27" t="s">
+      <c r="A133" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B133" s="27"/>
+      <c r="B133" s="33"/>
     </row>
     <row r="134" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
@@ -12537,35 +12499,35 @@
       <c r="A1" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -13696,10 +13658,10 @@
     </row>
     <row r="106" spans="1:4" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="107" spans="1:4" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="27"/>
+      <c r="B107" s="33"/>
     </row>
     <row r="108" spans="1:4" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:4" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13728,10 +13690,10 @@
       <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B118" s="27"/>
+      <c r="B118" s="33"/>
     </row>
     <row r="119" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
@@ -13766,10 +13728,10 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="27" t="s">
+      <c r="A126" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B126" s="27"/>
+      <c r="B126" s="33"/>
     </row>
     <row r="127" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
@@ -13797,10 +13759,10 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="27" t="s">
+      <c r="A133" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B133" s="27"/>
+      <c r="B133" s="33"/>
     </row>
     <row r="134" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
@@ -13842,7 +13804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -13862,35 +13824,35 @@
       <c r="A1" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -15133,10 +15095,10 @@
     </row>
     <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="27" t="s">
+      <c r="A108" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B108" s="27"/>
+      <c r="B108" s="33"/>
     </row>
     <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15149,10 +15111,10 @@
     <row r="117" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="119" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="27" t="s">
+      <c r="A119" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B119" s="27"/>
+      <c r="B119" s="33"/>
     </row>
     <row r="120" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
@@ -15187,10 +15149,10 @@
       </c>
     </row>
     <row r="127" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="27" t="s">
+      <c r="A127" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B127" s="27"/>
+      <c r="B127" s="33"/>
     </row>
     <row r="128" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
@@ -15218,10 +15180,10 @@
       </c>
     </row>
     <row r="134" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="27" t="s">
+      <c r="A134" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B134" s="27"/>
+      <c r="B134" s="33"/>
     </row>
     <row r="135" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
@@ -15282,35 +15244,35 @@
       <c r="A1" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -16865,16 +16827,16 @@
     <row r="133" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="134" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="136" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="27" t="s">
+      <c r="A136" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B136" s="27"/>
+      <c r="B136" s="33"/>
     </row>
     <row r="137" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="27" t="s">
+      <c r="A137" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B137" s="27"/>
+      <c r="B137" s="33"/>
     </row>
     <row r="138" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
@@ -16909,10 +16871,10 @@
       </c>
     </row>
     <row r="145" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="27" t="s">
+      <c r="A145" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B145" s="27"/>
+      <c r="B145" s="33"/>
     </row>
     <row r="146" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
@@ -16940,10 +16902,10 @@
       </c>
     </row>
     <row r="152" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="27" t="s">
+      <c r="A152" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B152" s="27"/>
+      <c r="B152" s="33"/>
     </row>
     <row r="153" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
@@ -17004,35 +16966,35 @@
       <c r="A1" s="14"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
@@ -18320,10 +18282,10 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="28" t="s">
+      <c r="A112" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B112" s="28"/>
+      <c r="B112" s="34"/>
       <c r="C112" s="15" t="s">
         <v>15</v>
       </c>
@@ -18344,10 +18306,10 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="28" t="s">
+      <c r="A123" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B123" s="28"/>
+      <c r="B123" s="34"/>
     </row>
     <row r="124" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A124" s="19" t="s">
@@ -18382,10 +18344,10 @@
       </c>
     </row>
     <row r="131" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="28" t="s">
+      <c r="A131" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="B131" s="28"/>
+      <c r="B131" s="34"/>
     </row>
     <row r="132" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="18" t="s">
@@ -18413,10 +18375,10 @@
       </c>
     </row>
     <row r="138" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="28" t="s">
+      <c r="A138" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="B138" s="28"/>
+      <c r="B138" s="34"/>
     </row>
     <row r="139" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="18" t="s">
@@ -18477,35 +18439,35 @@
       <c r="A1" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -19755,10 +19717,10 @@
     </row>
     <row r="106" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="107" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="27"/>
+      <c r="B107" s="33"/>
     </row>
     <row r="108" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="22" t="s">
@@ -19784,10 +19746,10 @@
     <row r="116" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B118" s="27"/>
+      <c r="B118" s="33"/>
     </row>
     <row r="119" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
@@ -19822,10 +19784,10 @@
       </c>
     </row>
     <row r="126" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="27" t="s">
+      <c r="A126" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B126" s="27"/>
+      <c r="B126" s="33"/>
     </row>
     <row r="127" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
@@ -19853,10 +19815,10 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="27" t="s">
+      <c r="A133" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B133" s="27"/>
+      <c r="B133" s="33"/>
     </row>
     <row r="134" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
@@ -19917,35 +19879,35 @@
       <c r="A1" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -21475,16 +21437,16 @@
     <row r="118" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="119" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="120" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="27" t="s">
+      <c r="A120" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B120" s="27"/>
+      <c r="B120" s="33"/>
     </row>
     <row r="121" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="27" t="s">
+      <c r="A121" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B121" s="27"/>
+      <c r="B121" s="33"/>
     </row>
     <row r="122" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
@@ -21519,10 +21481,10 @@
       </c>
     </row>
     <row r="129" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="27" t="s">
+      <c r="A129" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B129" s="27"/>
+      <c r="B129" s="33"/>
     </row>
     <row r="130" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
@@ -21550,10 +21512,10 @@
       </c>
     </row>
     <row r="136" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="27" t="s">
+      <c r="A136" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B136" s="27"/>
+      <c r="B136" s="33"/>
     </row>
     <row r="137" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
@@ -21614,35 +21576,35 @@
       <c r="A1" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -22934,10 +22896,10 @@
     </row>
     <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="107" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="27"/>
+      <c r="B107" s="33"/>
     </row>
     <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22950,10 +22912,10 @@
     <row r="116" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B118" s="27"/>
+      <c r="B118" s="33"/>
     </row>
     <row r="119" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
@@ -22988,10 +22950,10 @@
       </c>
     </row>
     <row r="126" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="27" t="s">
+      <c r="A126" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B126" s="27"/>
+      <c r="B126" s="33"/>
     </row>
     <row r="127" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
@@ -23019,10 +22981,10 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="27" t="s">
+      <c r="A133" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B133" s="27"/>
+      <c r="B133" s="33"/>
     </row>
     <row r="134" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
@@ -23083,35 +23045,35 @@
       <c r="A1" s="2"/>
     </row>
     <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -24316,10 +24278,10 @@
     </row>
     <row r="106" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="107" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B107" s="27"/>
+      <c r="B107" s="33"/>
     </row>
     <row r="108" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24332,10 +24294,10 @@
     <row r="116" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="117" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B118" s="27"/>
+      <c r="B118" s="33"/>
     </row>
     <row r="119" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
@@ -24370,10 +24332,10 @@
       </c>
     </row>
     <row r="126" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="27" t="s">
+      <c r="A126" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B126" s="27"/>
+      <c r="B126" s="33"/>
     </row>
     <row r="127" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
@@ -24401,10 +24363,10 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="27" t="s">
+      <c r="A133" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B133" s="27"/>
+      <c r="B133" s="33"/>
     </row>
     <row r="134" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
